--- a/FuncList.xlsx
+++ b/FuncList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorim\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18023A-950E-4510-8D7D-E9BD8E6E2D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCBF3E5-635C-48E4-8E93-59E300FCCE81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List!$A$1:$G$2149</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$B$1:$K$612</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$B$1:$K$611</definedName>
     <definedName name="a">{1}</definedName>
     <definedName name="Slicer_Category">#N/A</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8601" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8601" uniqueCount="1865">
   <si>
     <t>Function</t>
   </si>
@@ -4746,156 +4746,6 @@
     <t>ref3</t>
   </si>
   <si>
-    <t xml:space="preserve">ABSREF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reference </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVE.CELL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">command_ref </t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu_ref </t>
-  </si>
-  <si>
-    <t xml:space="preserve">number1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALLER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual_range </t>
-  </si>
-  <si>
-    <t xml:space="preserve">expected_range </t>
-  </si>
-  <si>
-    <t xml:space="preserve">array </t>
-  </si>
-  <si>
-    <t xml:space="preserve">array1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">array2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEREF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIALOG.BOX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialog_ref </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOCUMENTS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVALUATE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">values </t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_a1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rel_to_ref </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.CELL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.DOCUMENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.OBJECT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.PIVOT.FIELD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.PIVOT.TABLE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.TOOL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.TOOLBAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.WINDOW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.WORKBOOK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET.WORKSPACE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">value </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPUT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAST.ERROR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINKS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAMES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTIONS.LISTS.GET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_num </t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_text </t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_ref </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUEST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENARIO.GET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECTION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEXTREF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIEW.GET </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WINDOWS </t>
-  </si>
-  <si>
     <t>Arg10</t>
   </si>
   <si>
@@ -4905,6 +4755,9 @@
     <t>Arg12</t>
   </si>
   <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
     <t>RANDARRAY</t>
   </si>
   <si>
@@ -5034,9 +4887,6 @@
     <t>Let</t>
   </si>
   <si>
-    <t xml:space="preserve">SINGLE </t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -5046,18 +4896,12 @@
     <t>[bar_num]</t>
   </si>
   <si>
-    <t xml:space="preserve">[position1] </t>
-  </si>
-  <si>
     <t>[position2]</t>
   </si>
   <si>
     <t>[bar_name]</t>
   </si>
   <si>
-    <t xml:space="preserve">[tool_ref] </t>
-  </si>
-  <si>
     <t>[abs_num]</t>
   </si>
   <si>
@@ -5067,21 +4911,12 @@
     <t>[sheet_text]</t>
   </si>
   <si>
-    <t xml:space="preserve">[...] </t>
-  </si>
-  <si>
     <t>[text]</t>
   </si>
   <si>
     <t>[name_text]</t>
   </si>
   <si>
-    <t xml:space="preserve">[data_type_num] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[number2] </t>
-  </si>
-  <si>
     <t>[min_length]</t>
   </si>
   <si>
@@ -5094,60 +4929,21 @@
     <t>[number_s2]</t>
   </si>
   <si>
-    <t xml:space="preserve">[procedure] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[type_text] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[argument1] </t>
-  </si>
-  <si>
     <t>[enable]</t>
   </si>
   <si>
-    <t xml:space="preserve">[macro_ref] </t>
-  </si>
-  <si>
     <t>[significance]</t>
   </si>
   <si>
     <t>[mode]</t>
   </si>
   <si>
-    <t xml:space="preserve">[reference] </t>
-  </si>
-  <si>
     <t>[position]</t>
   </si>
   <si>
     <t>[...]</t>
   </si>
   <si>
-    <t xml:space="preserve">[x_offset1] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[y_offset1] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ref2] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[x_offset2] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[y_offset2] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[text] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[fill] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[editable] </t>
-  </si>
-  <si>
     <t>[caption]</t>
   </si>
   <si>
@@ -5220,12 +5016,6 @@
     <t>[step_num]</t>
   </si>
   <si>
-    <t xml:space="preserve">[area_ref] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[skip_blanks] </t>
-  </si>
-  <si>
     <t>[seasonality]</t>
   </si>
   <si>
@@ -5238,15 +5028,6 @@
     <t>[confidence_level]</t>
   </si>
   <si>
-    <t xml:space="preserve">[to_a1] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[to_ref_type] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[rel_to_ref] </t>
-  </si>
-  <si>
     <t>[position_num]</t>
   </si>
   <si>
@@ -5283,9 +5064,6 @@
     <t>[info_type]</t>
   </si>
   <si>
-    <t xml:space="preserve">[cell_ref] </t>
-  </si>
-  <si>
     <t>[start_char]</t>
   </si>
   <si>
@@ -5373,12 +5151,6 @@
     <t>[add_text]</t>
   </si>
   <si>
-    <t xml:space="preserve">[start_char] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[num_chars] </t>
-  </si>
-  <si>
     <t>[decimal_separator]</t>
   </si>
   <si>
@@ -5475,9 +5247,6 @@
     <t>[level_num]</t>
   </si>
   <si>
-    <t xml:space="preserve">[value] </t>
-  </si>
-  <si>
     <t>[form]</t>
   </si>
   <si>
@@ -5487,9 +5256,6 @@
     <t>[init_filename]</t>
   </si>
   <si>
-    <t xml:space="preserve">[bar_id] </t>
-  </si>
-  <si>
     <t>[filename]</t>
   </si>
   <si>
@@ -5541,18 +5307,33 @@
     <t>[sigma]</t>
   </si>
   <si>
+    <t>ABSREF</t>
+  </si>
+  <si>
     <t>[basis]</t>
   </si>
   <si>
     <t>[calc_method]</t>
   </si>
   <si>
+    <t>ACTIVE.CELL</t>
+  </si>
+  <si>
+    <t>[position1]</t>
+  </si>
+  <si>
+    <t>[tool_ref]</t>
+  </si>
+  <si>
     <t>[ref3]</t>
   </si>
   <si>
     <t>[logical2]</t>
   </si>
   <si>
+    <t>[data_type_num]</t>
+  </si>
+  <si>
     <t>[number2]</t>
   </si>
   <si>
@@ -5565,6 +5346,18 @@
     <t>[places]</t>
   </si>
   <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>[argument1]</t>
+  </si>
+  <si>
+    <t>CALLER</t>
+  </si>
+  <si>
+    <t>[macro_ref]</t>
+  </si>
+  <si>
     <t>CELL</t>
   </si>
   <si>
@@ -5580,15 +5373,99 @@
     <t>[[text2]]</t>
   </si>
   <si>
+    <t>[x_offset1]</t>
+  </si>
+  <si>
+    <t>[y_offset1]</t>
+  </si>
+  <si>
+    <t>[ref2]</t>
+  </si>
+  <si>
+    <t>[x_offset2]</t>
+  </si>
+  <si>
+    <t>[y_offset2]</t>
+  </si>
+  <si>
+    <t>[fill]</t>
+  </si>
+  <si>
+    <t>[editable]</t>
+  </si>
+  <si>
     <t>[member_expression1]</t>
   </si>
   <si>
+    <t>DEREF</t>
+  </si>
+  <si>
+    <t>DIALOG.BOX</t>
+  </si>
+  <si>
+    <t>DOCUMENTS</t>
+  </si>
+  <si>
+    <t>EVALUATE</t>
+  </si>
+  <si>
+    <t>FILES</t>
+  </si>
+  <si>
     <t>FILTERXML</t>
   </si>
   <si>
+    <t>[area_ref]</t>
+  </si>
+  <si>
+    <t>[skip_blanks]</t>
+  </si>
+  <si>
+    <t>[to_a1]</t>
+  </si>
+  <si>
+    <t>[to_ref_type]</t>
+  </si>
+  <si>
+    <t>[rel_to_ref]</t>
+  </si>
+  <si>
     <t>FREQUENCY</t>
   </si>
   <si>
+    <t>GET.CELL</t>
+  </si>
+  <si>
+    <t>GET.DOCUMENT</t>
+  </si>
+  <si>
+    <t>[cell_ref]</t>
+  </si>
+  <si>
+    <t>GET.OBJECT</t>
+  </si>
+  <si>
+    <t>GET.PIVOT.FIELD</t>
+  </si>
+  <si>
+    <t>GET.PIVOT.TABLE</t>
+  </si>
+  <si>
+    <t>GET.TOOL</t>
+  </si>
+  <si>
+    <t>GET.TOOLBAR</t>
+  </si>
+  <si>
+    <t>GET.WINDOW</t>
+  </si>
+  <si>
+    <t>GET.WORKBOOK</t>
+  </si>
+  <si>
+    <t>GET.WORKSPACE</t>
+  </si>
+  <si>
     <t>GROWTH</t>
   </si>
   <si>
@@ -5637,6 +5514,12 @@
     <t>INDIRECT</t>
   </si>
   <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>LAST.ERROR</t>
+  </si>
+  <si>
     <t>[calculation_or_name3]</t>
   </si>
   <si>
@@ -5646,6 +5529,9 @@
     <t>[stats]</t>
   </si>
   <si>
+    <t>LINKS</t>
+  </si>
+  <si>
     <t>LOGEST</t>
   </si>
   <si>
@@ -5667,18 +5553,33 @@
     <t>MUNIT</t>
   </si>
   <si>
+    <t>NAMES</t>
+  </si>
+  <si>
     <t>[holidays]</t>
   </si>
   <si>
     <t>OFFSET</t>
   </si>
   <si>
+    <t>OPTIONS.LISTS.GET</t>
+  </si>
+  <si>
+    <t>REQUEST</t>
+  </si>
+  <si>
     <t>[value]</t>
   </si>
   <si>
     <t>ROW</t>
   </si>
   <si>
+    <t>SCENARIO.GET</t>
+  </si>
+  <si>
+    <t>SELECTION</t>
+  </si>
+  <si>
     <t>[sum_range]</t>
   </si>
   <si>
@@ -5697,13 +5598,22 @@
     <t>[[result2]]</t>
   </si>
   <si>
+    <t>TEXTREF</t>
+  </si>
+  <si>
     <t>TRANSPOSE</t>
   </si>
   <si>
     <t>TREND</t>
   </si>
   <si>
+    <t>VIEW.GET</t>
+  </si>
+  <si>
     <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
   </si>
   <si>
     <t>[rows]</t>
@@ -6453,13 +6363,13 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Category 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Category" caption="Category" startItem="7" rowHeight="241300"/>
+  <slicer name="Category 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Category" caption="Category" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N612" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N612" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N611" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N611" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Cube"/>
@@ -6820,7 +6730,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O612"/>
+  <dimension ref="A1:O611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6865,13 +6775,13 @@
         <v>941</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1615</v>
+        <v>1565</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>1616</v>
+        <v>1566</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>1617</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -6902,13 +6812,13 @@
         <v>393</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1565</v>
+        <v>1752</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -6948,10 +6858,10 @@
         <v>316</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>1831</v>
+        <v>1754</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -6979,7 +6889,7 @@
         <v>334</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -7087,7 +6997,7 @@
         <v>393</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1567</v>
+        <v>1755</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -7111,7 +7021,7 @@
         <v>820</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1664</v>
+        <v>1614</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7137,16 +7047,16 @@
         <v>124</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1568</v>
+        <v>128</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1569</v>
+        <v>129</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1665</v>
+        <v>1756</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1666</v>
+        <v>1615</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -7168,13 +7078,13 @@
         <v>124</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1570</v>
+        <v>125</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1665</v>
+        <v>1756</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1666</v>
+        <v>1615</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -7194,10 +7104,10 @@
         <v>736</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1667</v>
+        <v>1616</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1668</v>
+        <v>1757</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -7225,13 +7135,13 @@
         <v>19</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1669</v>
+        <v>1617</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1670</v>
+        <v>1618</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1671</v>
+        <v>1619</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -7256,16 +7166,16 @@
         <v>348</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1892</v>
+        <v>1862</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1832</v>
+        <v>1758</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -7301,7 +7211,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -7336,7 +7246,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -7356,10 +7266,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1833</v>
+        <v>1759</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -7380,7 +7290,7 @@
         <v>731</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1673</v>
+        <v>1620</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7449,10 +7359,10 @@
         <v>871</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1674</v>
+        <v>1621</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1675</v>
+        <v>1760</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -7617,10 +7527,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -7644,10 +7554,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -7671,10 +7581,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -7701,7 +7611,7 @@
         <v>31</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1836</v>
+        <v>1763</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -7780,7 +7690,7 @@
         <v>352</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1677</v>
+        <v>1622</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -7913,10 +7823,10 @@
         <v>214</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1678</v>
+        <v>1623</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>1679</v>
+        <v>1624</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -7943,10 +7853,10 @@
         <v>207</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>1678</v>
+        <v>1623</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>1679</v>
+        <v>1624</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -7974,10 +7884,10 @@
         <v>207</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>1678</v>
+        <v>1623</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>1679</v>
+        <v>1624</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -8005,10 +7915,10 @@
         <v>207</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>1678</v>
+        <v>1623</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>1679</v>
+        <v>1624</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -8053,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -8078,7 +7988,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -8138,7 +8048,7 @@
         <v>211</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>1680</v>
+        <v>1625</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -8357,22 +8267,22 @@
         <v>393</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1572</v>
+        <v>1765</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>1681</v>
+        <v>1721</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>1682</v>
+        <v>1722</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1683</v>
+        <v>1766</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>1672</v>
+        <v>1630</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -8388,7 +8298,7 @@
         <v>393</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>1573</v>
+        <v>1767</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -8412,10 +8322,10 @@
         <v>805</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1684</v>
+        <v>1626</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1685</v>
+        <v>1768</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -8465,10 +8375,10 @@
         <v>12</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>1687</v>
+        <v>1628</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -8492,7 +8402,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -8511,13 +8421,13 @@
         <v>387</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>1838</v>
+        <v>1769</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1741</v>
+        <v>1668</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -8574,7 +8484,7 @@
         <v>133</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1689</v>
+        <v>1629</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -8770,10 +8680,10 @@
         <v>688</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1574</v>
+        <v>234</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>1575</v>
+        <v>235</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -8792,7 +8702,7 @@
         <v>389</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1839</v>
+        <v>1770</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>76</v>
@@ -8801,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -8867,10 +8777,10 @@
         <v>389</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1840</v>
+        <v>1771</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1741</v>
+        <v>1668</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -8972,7 +8882,7 @@
         <v>297</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>1841</v>
+        <v>1772</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -8996,10 +8906,10 @@
         <v>92</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1842</v>
+        <v>1773</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -9026,7 +8936,7 @@
         <v>373</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -9275,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -9302,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -9410,7 +9320,7 @@
         <v>316</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -9439,7 +9349,7 @@
         <v>316</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -9468,7 +9378,7 @@
         <v>316</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -9497,7 +9407,7 @@
         <v>316</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -9526,7 +9436,7 @@
         <v>316</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -9555,7 +9465,7 @@
         <v>316</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -9575,10 +9485,10 @@
         <v>686</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>1577</v>
+        <v>140</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>1578</v>
+        <v>141</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -9653,31 +9563,31 @@
         <v>172</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1579</v>
+        <v>173</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>1691</v>
+        <v>1774</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>1692</v>
+        <v>1775</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>1693</v>
+        <v>1776</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>1694</v>
+        <v>1777</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>1695</v>
+        <v>1778</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>1696</v>
+        <v>1620</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>1697</v>
+        <v>1779</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>1698</v>
+        <v>1780</v>
       </c>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
@@ -9773,7 +9683,7 @@
         <v>341</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>1699</v>
+        <v>1631</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -9799,7 +9709,7 @@
         <v>287</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1699</v>
+        <v>1631</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -9856,7 +9766,7 @@
         <v>291</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>1699</v>
+        <v>1631</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -9882,13 +9792,13 @@
         <v>290</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1699</v>
+        <v>1631</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>1700</v>
+        <v>1632</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>1701</v>
+        <v>1633</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
@@ -9933,10 +9843,10 @@
         <v>285</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>1843</v>
+        <v>1781</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -10023,13 +9933,13 @@
         <v>745</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>1702</v>
+        <v>1634</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>1703</v>
+        <v>1635</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1704</v>
+        <v>1636</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -10050,10 +9960,10 @@
         <v>746</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>1702</v>
+        <v>1634</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>1705</v>
+        <v>1637</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -10256,7 +10166,7 @@
         <v>163</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1706</v>
+        <v>1638</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -10289,7 +10199,7 @@
         <v>110</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1707</v>
+        <v>1639</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
@@ -10397,7 +10307,7 @@
         <v>110</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>1708</v>
+        <v>1640</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
@@ -10419,7 +10329,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -10444,7 +10354,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -10469,7 +10379,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -10571,7 +10481,7 @@
         <v>130</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>1709</v>
+        <v>1641</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -10597,7 +10507,7 @@
         <v>128</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>1710</v>
+        <v>1642</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -10644,7 +10554,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -10663,10 +10573,10 @@
         <v>393</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>1580</v>
+        <v>1782</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
@@ -10692,10 +10602,10 @@
         <v>8</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -10740,10 +10650,10 @@
         <v>393</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>1581</v>
+        <v>1783</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>1582</v>
+        <v>139</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
@@ -10766,7 +10676,7 @@
         <v>842</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>1711</v>
+        <v>1643</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
@@ -10801,7 +10711,7 @@
         <v>314</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
@@ -10871,13 +10781,13 @@
         <v>393</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>1583</v>
+        <v>1784</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>1713</v>
+        <v>1645</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -10902,7 +10812,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>1714</v>
+        <v>1646</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -11097,7 +11007,7 @@
         <v>316</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -11169,7 +11079,7 @@
         <v>866</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1715</v>
+        <v>1647</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
@@ -11323,7 +11233,7 @@
         <v>131</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>1709</v>
+        <v>1641</v>
       </c>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
@@ -11441,7 +11351,7 @@
         <v>238</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1791</v>
+        <v>1715</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -11532,10 +11442,10 @@
         <v>869</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>1716</v>
+        <v>1648</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1685</v>
+        <v>1768</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -11577,7 +11487,7 @@
         <v>393</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>1584</v>
+        <v>1785</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>184</v>
@@ -11654,7 +11564,7 @@
         <v>90</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1717</v>
+        <v>1649</v>
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -11956,7 +11866,7 @@
         <v>386</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>1662</v>
+        <v>1612</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -12027,10 +11937,10 @@
         <v>393</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>1585</v>
+        <v>1786</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>1718</v>
+        <v>1650</v>
       </c>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -12050,16 +11960,16 @@
         <v>389</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>1620</v>
+        <v>1571</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>1633</v>
+        <v>1584</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>1886</v>
+        <v>1856</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -12077,7 +11987,7 @@
         <v>398</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>1844</v>
+        <v>1787</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>361</v>
@@ -12111,7 +12021,7 @@
         <v>69</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -12138,7 +12048,7 @@
         <v>69</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -12235,10 +12145,10 @@
         <v>12</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1714</v>
+        <v>1646</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>1720</v>
+        <v>1652</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -12287,10 +12197,10 @@
         <v>12</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>1687</v>
+        <v>1628</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -12314,7 +12224,7 @@
         <v>12</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -12339,7 +12249,7 @@
         <v>100</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>1721</v>
+        <v>1653</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -12370,7 +12280,7 @@
         <v>144</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>1722</v>
+        <v>1654</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
@@ -12393,10 +12303,10 @@
         <v>168</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>1723</v>
+        <v>1788</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>1724</v>
+        <v>1789</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -12453,13 +12363,13 @@
         <v>365</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>1725</v>
+        <v>1655</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>1726</v>
+        <v>1656</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>1727</v>
+        <v>1657</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -12486,16 +12396,16 @@
         <v>365</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>1728</v>
+        <v>1658</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>1725</v>
+        <v>1655</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>1726</v>
+        <v>1656</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1727</v>
+        <v>1657</v>
       </c>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
@@ -12518,10 +12428,10 @@
         <v>365</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>1726</v>
+        <v>1656</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>1727</v>
+        <v>1657</v>
       </c>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
@@ -12550,13 +12460,13 @@
         <v>370</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>1725</v>
+        <v>1655</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>1726</v>
+        <v>1656</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>1727</v>
+        <v>1657</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
@@ -12604,16 +12514,16 @@
         <v>184</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>1587</v>
+        <v>185</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>1729</v>
+        <v>1790</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1730</v>
+        <v>1791</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>1731</v>
+        <v>1792</v>
       </c>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
@@ -12658,7 +12568,7 @@
         <v>102</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>1732</v>
+        <v>1659</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -12725,7 +12635,7 @@
         <v>385</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>1845</v>
+        <v>1793</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>194</v>
@@ -12776,10 +12686,10 @@
         <v>684</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>1577</v>
+        <v>140</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>1578</v>
+        <v>141</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
@@ -12810,10 +12720,10 @@
         <v>41</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>1733</v>
+        <v>1660</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
@@ -13114,10 +13024,10 @@
         <v>8</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -13141,10 +13051,10 @@
         <v>8</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -13168,7 +13078,7 @@
         <v>12</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>1816</v>
+        <v>1738</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -13190,16 +13100,16 @@
         <v>794</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>1664</v>
+        <v>1614</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>1735</v>
+        <v>1662</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>1736</v>
+        <v>1663</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>1709</v>
+        <v>1641</v>
       </c>
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
@@ -13216,13 +13126,13 @@
         <v>393</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>1589</v>
+        <v>1794</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>1688</v>
+        <v>1668</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -13247,10 +13157,10 @@
         <v>136</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>1737</v>
+        <v>1664</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>1738</v>
+        <v>1665</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -13274,10 +13184,10 @@
         <v>112</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>1739</v>
+        <v>1666</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
@@ -13295,13 +13205,13 @@
         <v>393</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>1590</v>
+        <v>1795</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1674</v>
+        <v>1621</v>
       </c>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -13323,7 +13233,7 @@
         <v>858</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -13352,10 +13262,10 @@
         <v>72</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>1740</v>
+        <v>1667</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>1741</v>
+        <v>1668</v>
       </c>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
@@ -13381,7 +13291,7 @@
         <v>244</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>1742</v>
+        <v>1669</v>
       </c>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
@@ -13405,7 +13315,7 @@
         <v>66</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>1743</v>
+        <v>1670</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
@@ -13427,13 +13337,13 @@
         <v>789</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>1744</v>
+        <v>1796</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>1745</v>
+        <v>1671</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>1746</v>
+        <v>1672</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
@@ -13451,22 +13361,22 @@
         <v>393</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>1591</v>
+        <v>1797</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>1747</v>
+        <v>1673</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>1748</v>
+        <v>1674</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1749</v>
+        <v>1675</v>
       </c>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
@@ -13482,16 +13392,16 @@
         <v>393</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>1592</v>
+        <v>1798</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>1750</v>
+        <v>1676</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>1751</v>
+        <v>1677</v>
       </c>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
@@ -13515,13 +13425,13 @@
         <v>72</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>1752</v>
+        <v>1678</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>1750</v>
+        <v>1676</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>1751</v>
+        <v>1677</v>
       </c>
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
@@ -13538,13 +13448,13 @@
         <v>393</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>1593</v>
+        <v>1799</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>1751</v>
+        <v>1677</v>
       </c>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -13563,16 +13473,16 @@
         <v>393</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>1594</v>
+        <v>1800</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>1753</v>
+        <v>1679</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>1689</v>
+        <v>1629</v>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
@@ -13590,13 +13500,13 @@
         <v>393</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>1595</v>
+        <v>1801</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>1753</v>
+        <v>1679</v>
       </c>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -13615,13 +13525,13 @@
         <v>393</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>1596</v>
+        <v>1802</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>1754</v>
+        <v>1680</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -13640,13 +13550,13 @@
         <v>393</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>1597</v>
+        <v>1803</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>1674</v>
+        <v>1621</v>
       </c>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -13665,7 +13575,7 @@
         <v>393</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>1598</v>
+        <v>1804</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>72</v>
@@ -13697,10 +13607,10 @@
         <v>274</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1755</v>
+        <v>1681</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>1756</v>
+        <v>1682</v>
       </c>
       <c r="G263" s="5" t="s">
         <v>277</v>
@@ -13724,7 +13634,7 @@
         <v>897</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -13765,19 +13675,19 @@
         <v>385</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>1846</v>
+        <v>1805</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>1848</v>
+        <v>1807</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
@@ -13797,7 +13707,7 @@
         <v>896</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1757</v>
+        <v>1683</v>
       </c>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
@@ -13823,10 +13733,10 @@
         <v>8</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
@@ -13847,7 +13757,7 @@
         <v>795</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1758</v>
+        <v>1684</v>
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
@@ -13873,7 +13783,7 @@
         <v>12</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
@@ -13921,7 +13831,7 @@
         <v>12</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
@@ -13940,7 +13850,7 @@
         <v>389</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>1850</v>
+        <v>1809</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>16</v>
@@ -13952,7 +13862,7 @@
         <v>78</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>1759</v>
+        <v>1685</v>
       </c>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
@@ -13992,13 +13902,13 @@
         <v>389</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>1851</v>
+        <v>1810</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>279</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>1852</v>
+        <v>1811</v>
       </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -14077,16 +13987,16 @@
         <v>386</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>1853</v>
+        <v>1812</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>1854</v>
+        <v>1813</v>
       </c>
       <c r="E278" s="9" t="s">
-        <v>1855</v>
+        <v>1814</v>
       </c>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
@@ -14104,7 +14014,7 @@
         <v>386</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>7</v>
@@ -14129,7 +14039,7 @@
         <v>386</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>1857</v>
+        <v>1816</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>7</v>
@@ -14154,7 +14064,7 @@
         <v>386</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>1858</v>
+        <v>1817</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>374</v>
@@ -14536,10 +14446,10 @@
         <v>293</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>1859</v>
+        <v>1818</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
@@ -14726,10 +14636,10 @@
         <v>293</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>1859</v>
+        <v>1818</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -14770,19 +14680,19 @@
         <v>389</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>1860</v>
+        <v>1819</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>1760</v>
+        <v>1686</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>1761</v>
+        <v>1687</v>
       </c>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
@@ -14799,13 +14709,13 @@
         <v>389</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>1861</v>
+        <v>1820</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1670</v>
+        <v>1618</v>
       </c>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -14872,28 +14782,28 @@
         <v>393</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>1600</v>
+        <v>1821</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>1762</v>
+        <v>1688</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>1763</v>
+        <v>1689</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1764</v>
+        <v>1690</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>1765</v>
+        <v>1691</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>1758</v>
+        <v>1684</v>
       </c>
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
@@ -14970,7 +14880,7 @@
         <v>314</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
@@ -15001,10 +14911,10 @@
         <v>44</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1766</v>
+        <v>1692</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
@@ -15025,7 +14935,7 @@
         <v>46</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1767</v>
+        <v>1693</v>
       </c>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -15257,7 +15167,7 @@
         <v>12</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -15426,10 +15336,10 @@
         <v>8</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -15472,7 +15382,7 @@
         <v>393</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>1601</v>
+        <v>1822</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -15499,10 +15409,10 @@
         <v>8</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E336" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
@@ -15526,7 +15436,7 @@
         <v>21</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>1746</v>
+        <v>1672</v>
       </c>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -15551,7 +15461,7 @@
         <v>21</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>1768</v>
+        <v>1694</v>
       </c>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -15616,25 +15526,25 @@
         <v>32</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>1641</v>
+        <v>1577</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>1592</v>
       </c>
       <c r="D341" s="9" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E341" s="7" t="s">
-        <v>1643</v>
+        <v>1593</v>
+      </c>
+      <c r="E341" s="9" t="s">
+        <v>1594</v>
       </c>
       <c r="F341" s="9" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G341" s="7" t="s">
-        <v>1862</v>
-      </c>
-      <c r="H341" s="5" t="s">
-        <v>1769</v>
+        <v>1857</v>
+      </c>
+      <c r="G341" s="9" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H341" s="9" t="s">
+        <v>1695</v>
       </c>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
@@ -15649,19 +15559,19 @@
         <v>385</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>1863</v>
+        <v>1824</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D342" s="11" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="E342" s="8" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>1864</v>
+        <v>1825</v>
       </c>
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
@@ -15678,13 +15588,13 @@
         <v>393</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>1602</v>
+        <v>1826</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1739</v>
+        <v>1666</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -15732,7 +15642,7 @@
         <v>12</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>1770</v>
+        <v>1696</v>
       </c>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -15774,19 +15684,19 @@
         <v>385</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>1865</v>
+        <v>1827</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>1864</v>
+        <v>1825</v>
       </c>
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
@@ -15919,10 +15829,10 @@
         <v>16</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>1866</v>
+        <v>1828</v>
       </c>
       <c r="E352" s="11" t="s">
-        <v>1867</v>
+        <v>1829</v>
       </c>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
@@ -15972,7 +15882,7 @@
         <v>49</v>
       </c>
       <c r="E354" s="8" t="s">
-        <v>1868</v>
+        <v>1830</v>
       </c>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
@@ -15996,10 +15906,10 @@
         <v>8</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
@@ -16023,10 +15933,10 @@
         <v>1</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E356" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
@@ -16114,7 +16024,7 @@
         <v>316</v>
       </c>
       <c r="H359" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
@@ -16135,10 +16045,10 @@
         <v>8</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E360" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
@@ -16216,10 +16126,10 @@
         <v>8</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E363" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
@@ -16243,10 +16153,10 @@
         <v>1</v>
       </c>
       <c r="D364" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E364" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
@@ -16316,7 +16226,7 @@
         <v>388</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>1869</v>
+        <v>1831</v>
       </c>
       <c r="C367" s="10" t="s">
         <v>59</v>
@@ -16366,7 +16276,7 @@
         <v>388</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>1870</v>
+        <v>1832</v>
       </c>
       <c r="C369" s="10" t="s">
         <v>140</v>
@@ -16419,13 +16329,13 @@
         <v>664</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>1571</v>
+        <v>8</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>1676</v>
+        <v>1761</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>1672</v>
+        <v>1630</v>
       </c>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
@@ -16449,10 +16359,10 @@
         <v>8</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
@@ -16476,10 +16386,10 @@
         <v>8</v>
       </c>
       <c r="D373" s="10" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
@@ -16532,7 +16442,7 @@
         <v>245</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>1771</v>
+        <v>1697</v>
       </c>
       <c r="G375" s="6"/>
       <c r="H375" s="6"/>
@@ -16580,10 +16490,10 @@
         <v>8</v>
       </c>
       <c r="D377" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
@@ -16601,7 +16511,7 @@
         <v>388</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>1871</v>
+        <v>1833</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>355</v>
@@ -16668,16 +16578,16 @@
         <v>393</v>
       </c>
       <c r="B381" s="19" t="s">
-        <v>1603</v>
+        <v>1834</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1739</v>
+        <v>1666</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>1713</v>
+        <v>1645</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -16760,7 +16670,7 @@
         <v>163</v>
       </c>
       <c r="E384" s="9" t="s">
-        <v>1872</v>
+        <v>1835</v>
       </c>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
@@ -16787,10 +16697,10 @@
         <v>163</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>1772</v>
+        <v>1698</v>
       </c>
       <c r="F385" s="9" t="s">
-        <v>1872</v>
+        <v>1835</v>
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
@@ -17085,16 +16995,16 @@
         <v>788</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1773</v>
+        <v>1699</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>1744</v>
+        <v>1796</v>
       </c>
       <c r="E397" s="8" t="s">
-        <v>1774</v>
+        <v>1671</v>
       </c>
       <c r="F397" s="8" t="s">
-        <v>1775</v>
+        <v>1672</v>
       </c>
       <c r="G397" s="6"/>
       <c r="H397" s="6"/>
@@ -17144,10 +17054,10 @@
         <v>44</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>1766</v>
+        <v>1692</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
@@ -17172,10 +17082,10 @@
         <v>1</v>
       </c>
       <c r="E400" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="F400" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="G400" s="6"/>
       <c r="H400" s="6"/>
@@ -17223,10 +17133,10 @@
         <v>21</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>1776</v>
+        <v>1700</v>
       </c>
       <c r="E402" s="5" t="s">
-        <v>1777</v>
+        <v>1701</v>
       </c>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
@@ -17250,7 +17160,7 @@
         <v>12</v>
       </c>
       <c r="D403" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
@@ -17298,7 +17208,7 @@
         <v>12</v>
       </c>
       <c r="D405" s="8" t="s">
-        <v>1837</v>
+        <v>1764</v>
       </c>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
@@ -17367,7 +17277,7 @@
         <v>316</v>
       </c>
       <c r="K407" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="L407" s="6"/>
       <c r="M407" s="6"/>
@@ -17406,7 +17316,7 @@
         <v>316</v>
       </c>
       <c r="K408" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="L408" s="6"/>
       <c r="M408" s="6"/>
@@ -17442,7 +17352,7 @@
         <v>316</v>
       </c>
       <c r="J409" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
@@ -17479,7 +17389,7 @@
         <v>316</v>
       </c>
       <c r="J410" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
@@ -17492,7 +17402,7 @@
         <v>389</v>
       </c>
       <c r="B411" s="17" t="s">
-        <v>1873</v>
+        <v>1836</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>10</v>
@@ -17504,10 +17414,10 @@
         <v>61</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>1778</v>
+        <v>1702</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1779</v>
+        <v>1703</v>
       </c>
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
@@ -17526,16 +17436,16 @@
         <v>644</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1780</v>
+        <v>1704</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>1781</v>
+        <v>1705</v>
       </c>
       <c r="E412" s="5" t="s">
-        <v>1782</v>
+        <v>1706</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>1783</v>
+        <v>1707</v>
       </c>
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
@@ -17552,10 +17462,10 @@
         <v>393</v>
       </c>
       <c r="B413" s="19" t="s">
-        <v>1604</v>
+        <v>1837</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>1605</v>
+        <v>263</v>
       </c>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
@@ -17581,10 +17491,10 @@
         <v>25</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>1833</v>
+        <v>1759</v>
       </c>
       <c r="E414" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
@@ -17605,7 +17515,7 @@
         <v>738</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1784</v>
+        <v>1708</v>
       </c>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
@@ -17680,7 +17590,7 @@
         <v>666</v>
       </c>
       <c r="C418" s="9" t="s">
-        <v>1576</v>
+        <v>59</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>241</v>
@@ -17755,13 +17665,13 @@
         <v>665</v>
       </c>
       <c r="C421" s="9" t="s">
-        <v>1576</v>
+        <v>59</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>205</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -17788,7 +17698,7 @@
         <v>205</v>
       </c>
       <c r="E422" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -17815,7 +17725,7 @@
         <v>205</v>
       </c>
       <c r="E423" s="5" t="s">
-        <v>1686</v>
+        <v>1627</v>
       </c>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
@@ -17959,25 +17869,25 @@
         <v>250</v>
       </c>
       <c r="E429" s="5" t="s">
-        <v>1785</v>
+        <v>1709</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>1689</v>
+        <v>1629</v>
       </c>
       <c r="G429" s="5" t="s">
-        <v>1786</v>
+        <v>1710</v>
       </c>
       <c r="H429" s="5" t="s">
-        <v>1787</v>
+        <v>1711</v>
       </c>
       <c r="I429" s="5" t="s">
-        <v>1788</v>
+        <v>1712</v>
       </c>
       <c r="J429" s="5" t="s">
-        <v>1789</v>
+        <v>1713</v>
       </c>
       <c r="K429" s="5" t="s">
-        <v>1790</v>
+        <v>1714</v>
       </c>
       <c r="L429" s="6"/>
       <c r="M429" s="6"/>
@@ -18001,10 +17911,10 @@
         <v>44</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>1766</v>
+        <v>1692</v>
       </c>
       <c r="G430" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
@@ -18080,10 +17990,10 @@
         <v>148</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>1606</v>
+        <v>138</v>
       </c>
       <c r="E433" s="8" t="s">
-        <v>1607</v>
+        <v>149</v>
       </c>
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
@@ -18141,10 +18051,10 @@
         <v>44</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1766</v>
+        <v>1692</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
@@ -18207,7 +18117,7 @@
         <v>316</v>
       </c>
       <c r="I437" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="J437" s="6"/>
       <c r="K437" s="6"/>
@@ -18236,7 +18146,7 @@
         <v>314</v>
       </c>
       <c r="G438" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
@@ -18270,7 +18180,7 @@
         <v>310</v>
       </c>
       <c r="H439" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
@@ -18297,7 +18207,7 @@
         <v>238</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>1791</v>
+        <v>1715</v>
       </c>
       <c r="G440" s="6"/>
       <c r="H440" s="6"/>
@@ -18320,10 +18230,10 @@
         <v>8</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E441" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
@@ -18376,10 +18286,10 @@
         <v>41</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>1766</v>
+        <v>1692</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
@@ -18398,7 +18308,7 @@
         <v>667</v>
       </c>
       <c r="C444" s="9" t="s">
-        <v>1576</v>
+        <v>59</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>242</v>
@@ -18539,22 +18449,22 @@
         <v>388</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>1618</v>
+        <v>1569</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="E450" s="5" t="s">
-        <v>1793</v>
+        <v>1717</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>1794</v>
+        <v>1718</v>
       </c>
       <c r="G450" s="5" t="s">
-        <v>1795</v>
+        <v>1719</v>
       </c>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
@@ -18601,10 +18511,10 @@
         <v>12</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1608</v>
+        <v>158</v>
       </c>
       <c r="E452" s="5" t="s">
-        <v>1796</v>
+        <v>1720</v>
       </c>
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
@@ -18631,7 +18541,7 @@
         <v>158</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>1796</v>
+        <v>1720</v>
       </c>
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
@@ -18658,7 +18568,7 @@
         <v>158</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>1796</v>
+        <v>1720</v>
       </c>
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
@@ -18688,13 +18598,13 @@
         <v>44</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>1766</v>
+        <v>1692</v>
       </c>
       <c r="G455" s="5" t="s">
-        <v>1734</v>
+        <v>1661</v>
       </c>
       <c r="H455" s="5" t="s">
-        <v>1767</v>
+        <v>1693</v>
       </c>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
@@ -18724,7 +18634,7 @@
         <v>315</v>
       </c>
       <c r="G456" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
@@ -18743,10 +18653,10 @@
         <v>822</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>1670</v>
+        <v>1618</v>
       </c>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
@@ -18771,37 +18681,37 @@
         <v>114</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>1797</v>
+        <v>1721</v>
       </c>
       <c r="E458" s="5" t="s">
-        <v>1798</v>
+        <v>1722</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>1799</v>
+        <v>1723</v>
       </c>
       <c r="G458" s="5" t="s">
-        <v>1800</v>
+        <v>1724</v>
       </c>
       <c r="H458" s="5" t="s">
-        <v>1801</v>
+        <v>1725</v>
       </c>
       <c r="I458" s="5" t="s">
-        <v>1802</v>
+        <v>1726</v>
       </c>
       <c r="J458" s="5" t="s">
-        <v>1803</v>
+        <v>1727</v>
       </c>
       <c r="K458" s="5" t="s">
-        <v>1804</v>
+        <v>1728</v>
       </c>
       <c r="L458" s="5" t="s">
-        <v>1805</v>
+        <v>1729</v>
       </c>
       <c r="M458" s="5" t="s">
-        <v>1806</v>
+        <v>1730</v>
       </c>
       <c r="N458" s="5" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="O458" s="22"/>
     </row>
@@ -18819,7 +18729,7 @@
         <v>115</v>
       </c>
       <c r="E459" s="5" t="s">
-        <v>1798</v>
+        <v>1722</v>
       </c>
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
@@ -18840,10 +18750,10 @@
         <v>872</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1588</v>
+        <v>65</v>
       </c>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
@@ -18877,7 +18787,7 @@
         <v>66</v>
       </c>
       <c r="G461" s="5" t="s">
-        <v>1689</v>
+        <v>1629</v>
       </c>
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
@@ -18976,7 +18886,7 @@
         <v>393</v>
       </c>
       <c r="B465" s="19" t="s">
-        <v>1609</v>
+        <v>1838</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>148</v>
@@ -19027,7 +18937,7 @@
         <v>796</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>1807</v>
+        <v>1731</v>
       </c>
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
@@ -19050,7 +18960,7 @@
         <v>863</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
@@ -19073,7 +18983,7 @@
         <v>737</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
@@ -19096,7 +19006,7 @@
         <v>895</v>
       </c>
       <c r="C470" s="9" t="s">
-        <v>1808</v>
+        <v>1839</v>
       </c>
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
@@ -19122,7 +19032,7 @@
         <v>21</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>1746</v>
+        <v>1672</v>
       </c>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
@@ -19147,7 +19057,7 @@
         <v>21</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>1768</v>
+        <v>1694</v>
       </c>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -19172,7 +19082,7 @@
         <v>12</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>1809</v>
+        <v>1732</v>
       </c>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
@@ -19312,10 +19222,10 @@
         <v>389</v>
       </c>
       <c r="B479" s="19" t="s">
-        <v>1875</v>
+        <v>1840</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>1741</v>
+        <v>1668</v>
       </c>
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
@@ -19422,10 +19332,10 @@
         <v>283</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>1810</v>
+        <v>1733</v>
       </c>
       <c r="G483" s="5" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="H483" s="6"/>
       <c r="I483" s="6"/>
@@ -19444,19 +19354,19 @@
         <v>643</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>1811</v>
+        <v>1734</v>
       </c>
       <c r="D484" s="5" t="s">
-        <v>1782</v>
+        <v>1706</v>
       </c>
       <c r="E484" s="5" t="s">
-        <v>1781</v>
+        <v>1705</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>1780</v>
+        <v>1704</v>
       </c>
       <c r="G484" s="5" t="s">
-        <v>1783</v>
+        <v>1707</v>
       </c>
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
@@ -19475,10 +19385,10 @@
         <v>729</v>
       </c>
       <c r="C485" s="13" t="s">
-        <v>1812</v>
+        <v>1679</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>1813</v>
+        <v>1735</v>
       </c>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
@@ -19497,13 +19407,13 @@
         <v>393</v>
       </c>
       <c r="B486" s="17" t="s">
-        <v>1610</v>
+        <v>1841</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>1814</v>
+        <v>1736</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -19531,7 +19441,7 @@
         <v>69</v>
       </c>
       <c r="E487" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
@@ -19558,7 +19468,7 @@
         <v>69</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -19645,7 +19555,7 @@
         <v>393</v>
       </c>
       <c r="B492" s="17" t="s">
-        <v>1611</v>
+        <v>1842</v>
       </c>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
@@ -19666,19 +19576,19 @@
         <v>388</v>
       </c>
       <c r="B493" s="20" t="s">
-        <v>1621</v>
+        <v>1572</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="E493" s="5" t="s">
-        <v>1815</v>
+        <v>1737</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>1816</v>
+        <v>1738</v>
       </c>
       <c r="G493" s="6"/>
       <c r="H493" s="6"/>
@@ -19751,7 +19661,7 @@
         <v>66</v>
       </c>
       <c r="D496" s="9" t="s">
-        <v>1808</v>
+        <v>1839</v>
       </c>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -19773,10 +19683,10 @@
         <v>856</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1566</v>
+        <v>10</v>
       </c>
       <c r="D497" s="13" t="s">
-        <v>1586</v>
+        <v>46</v>
       </c>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
@@ -19798,7 +19708,7 @@
         <v>418</v>
       </c>
       <c r="C498" s="9" t="s">
-        <v>1874</v>
+        <v>1839</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
@@ -19821,7 +19731,7 @@
         <v>417</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>1741</v>
+        <v>1668</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
@@ -19844,7 +19754,7 @@
         <v>814</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>1664</v>
+        <v>1614</v>
       </c>
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
@@ -19910,10 +19820,10 @@
         <v>395</v>
       </c>
       <c r="B503" s="21" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C503" s="8" t="s">
-        <v>1599</v>
+        <v>1568</v>
+      </c>
+      <c r="C503" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
@@ -19962,10 +19872,10 @@
         <v>8</v>
       </c>
       <c r="D505" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E505" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
@@ -19989,10 +19899,10 @@
         <v>8</v>
       </c>
       <c r="D506" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E506" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F506" s="6"/>
       <c r="G506" s="6"/>
@@ -20087,19 +19997,19 @@
         <v>389</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>1622</v>
+        <v>1573</v>
       </c>
       <c r="C510" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D510" s="10" t="s">
-        <v>1888</v>
+        <v>1858</v>
       </c>
       <c r="E510" s="10" t="s">
-        <v>1700</v>
+        <v>1632</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1817</v>
+        <v>1739</v>
       </c>
       <c r="G510" s="6"/>
       <c r="H510" s="6"/>
@@ -20116,25 +20026,25 @@
         <v>389</v>
       </c>
       <c r="B511" s="20" t="s">
-        <v>1623</v>
+        <v>1574</v>
       </c>
       <c r="C511" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D511" s="10" t="s">
-        <v>1647</v>
+        <v>1598</v>
       </c>
       <c r="E511" s="5" t="s">
-        <v>1648</v>
+        <v>1599</v>
       </c>
       <c r="F511" s="10" t="s">
-        <v>1889</v>
+        <v>1859</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>1818</v>
+        <v>1740</v>
       </c>
       <c r="H511" s="5" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="I511" s="6"/>
       <c r="J511" s="6"/>
@@ -20155,10 +20065,10 @@
         <v>199</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>1819</v>
+        <v>1741</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>1820</v>
+        <v>1742</v>
       </c>
       <c r="F512" s="6"/>
       <c r="G512" s="6"/>
@@ -20252,13 +20162,13 @@
         <v>931</v>
       </c>
       <c r="C516" s="9" t="s">
-        <v>1571</v>
+        <v>8</v>
       </c>
       <c r="D516" s="9" t="s">
-        <v>1676</v>
+        <v>1761</v>
       </c>
       <c r="E516" s="9" t="s">
-        <v>1672</v>
+        <v>1630</v>
       </c>
       <c r="F516" s="6"/>
       <c r="G516" s="6"/>
@@ -20282,10 +20192,10 @@
         <v>8</v>
       </c>
       <c r="D517" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E517" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
@@ -20309,10 +20219,10 @@
         <v>8</v>
       </c>
       <c r="D518" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E518" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -20336,10 +20246,10 @@
         <v>1</v>
       </c>
       <c r="D519" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E519" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
@@ -20360,13 +20270,13 @@
         <v>787</v>
       </c>
       <c r="C520" s="9" t="s">
-        <v>1571</v>
+        <v>8</v>
       </c>
       <c r="D520" s="9" t="s">
-        <v>1676</v>
+        <v>1761</v>
       </c>
       <c r="E520" s="9" t="s">
-        <v>1672</v>
+        <v>1630</v>
       </c>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -20390,10 +20300,10 @@
         <v>1</v>
       </c>
       <c r="D521" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E521" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
@@ -20469,7 +20379,7 @@
         <v>95</v>
       </c>
       <c r="F524" s="5" t="s">
-        <v>1821</v>
+        <v>1743</v>
       </c>
       <c r="G524" s="6"/>
       <c r="H524" s="6"/>
@@ -20495,7 +20405,7 @@
         <v>173</v>
       </c>
       <c r="E525" s="7" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
@@ -20519,10 +20429,10 @@
         <v>8</v>
       </c>
       <c r="D526" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E526" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F526" s="6"/>
       <c r="G526" s="6"/>
@@ -20549,7 +20459,7 @@
         <v>31</v>
       </c>
       <c r="E527" s="7" t="s">
-        <v>1876</v>
+        <v>1843</v>
       </c>
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
@@ -20602,13 +20512,13 @@
         <v>140</v>
       </c>
       <c r="D529" s="10" t="s">
-        <v>1877</v>
+        <v>1844</v>
       </c>
       <c r="E529" s="10" t="s">
-        <v>1878</v>
+        <v>1845</v>
       </c>
       <c r="F529" s="10" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="G529" s="6"/>
       <c r="H529" s="6"/>
@@ -20631,10 +20541,10 @@
         <v>8</v>
       </c>
       <c r="D530" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E530" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F530" s="6"/>
       <c r="G530" s="6"/>
@@ -20727,7 +20637,7 @@
         <v>386</v>
       </c>
       <c r="B534" s="18" t="s">
-        <v>1879</v>
+        <v>1846</v>
       </c>
       <c r="C534" s="13" t="s">
         <v>380</v>
@@ -20739,10 +20649,10 @@
         <v>381</v>
       </c>
       <c r="F534" s="9" t="s">
-        <v>1880</v>
+        <v>1847</v>
       </c>
       <c r="G534" s="9" t="s">
-        <v>1881</v>
+        <v>1848</v>
       </c>
       <c r="H534" s="9" t="s">
         <v>3</v>
@@ -21176,13 +21086,13 @@
         <v>155</v>
       </c>
       <c r="D551" s="5" t="s">
-        <v>1747</v>
+        <v>1673</v>
       </c>
       <c r="E551" s="5" t="s">
-        <v>1719</v>
+        <v>1651</v>
       </c>
       <c r="F551" s="5" t="s">
-        <v>1746</v>
+        <v>1672</v>
       </c>
       <c r="G551" s="6"/>
       <c r="H551" s="6"/>
@@ -21211,7 +21121,7 @@
         <v>92</v>
       </c>
       <c r="F552" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="G552" s="6"/>
       <c r="H552" s="6"/>
@@ -21228,13 +21138,13 @@
         <v>393</v>
       </c>
       <c r="B553" s="17" t="s">
-        <v>1612</v>
+        <v>1849</v>
       </c>
       <c r="C553" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D553" s="5" t="s">
-        <v>1670</v>
+        <v>1618</v>
       </c>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
@@ -21510,7 +21420,7 @@
         <v>389</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>1882</v>
+        <v>1850</v>
       </c>
       <c r="C565" s="13" t="s">
         <v>59</v>
@@ -21533,19 +21443,19 @@
         <v>385</v>
       </c>
       <c r="B566" s="20" t="s">
-        <v>1883</v>
+        <v>1851</v>
       </c>
       <c r="C566" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="E566" s="11" t="s">
-        <v>1848</v>
+        <v>1807</v>
       </c>
       <c r="F566" s="8" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="G566" s="6"/>
       <c r="H566" s="6"/>
@@ -21610,7 +21520,7 @@
         <v>386</v>
       </c>
       <c r="B569" s="16" t="s">
-        <v>1663</v>
+        <v>1613</v>
       </c>
       <c r="C569" s="6"/>
       <c r="D569" s="6"/>
@@ -21637,7 +21547,7 @@
         <v>12</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>1822</v>
+        <v>1744</v>
       </c>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
@@ -21659,10 +21569,10 @@
         <v>678</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>1577</v>
+        <v>140</v>
       </c>
       <c r="D571" s="10" t="s">
-        <v>1578</v>
+        <v>141</v>
       </c>
       <c r="E571" s="5" t="s">
         <v>231</v>
@@ -21754,16 +21664,16 @@
         <v>389</v>
       </c>
       <c r="B575" s="20" t="s">
-        <v>1619</v>
+        <v>1570</v>
       </c>
       <c r="C575" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>1817</v>
+        <v>1739</v>
       </c>
       <c r="E575" s="5" t="s">
-        <v>1823</v>
+        <v>1745</v>
       </c>
       <c r="F575" s="6"/>
       <c r="G575" s="6"/>
@@ -21833,7 +21743,7 @@
         <v>12</v>
       </c>
       <c r="D578" s="5" t="s">
-        <v>1714</v>
+        <v>1646</v>
       </c>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
@@ -21878,13 +21788,13 @@
         <v>900</v>
       </c>
       <c r="C580" s="9" t="s">
-        <v>1571</v>
+        <v>8</v>
       </c>
       <c r="D580" s="9" t="s">
-        <v>1676</v>
+        <v>1761</v>
       </c>
       <c r="E580" s="9" t="s">
-        <v>1672</v>
+        <v>1630</v>
       </c>
       <c r="F580" s="6"/>
       <c r="G580" s="6"/>
@@ -21908,10 +21818,10 @@
         <v>8</v>
       </c>
       <c r="D581" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E581" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -21935,10 +21845,10 @@
         <v>8</v>
       </c>
       <c r="D582" s="9" t="s">
-        <v>1834</v>
+        <v>1761</v>
       </c>
       <c r="E582" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F582" s="6"/>
       <c r="G582" s="6"/>
@@ -21962,10 +21872,10 @@
         <v>1</v>
       </c>
       <c r="D583" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E583" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F583" s="6"/>
       <c r="G583" s="6"/>
@@ -21986,13 +21896,13 @@
         <v>786</v>
       </c>
       <c r="C584" s="9" t="s">
-        <v>1571</v>
+        <v>8</v>
       </c>
       <c r="D584" s="9" t="s">
-        <v>1676</v>
+        <v>1761</v>
       </c>
       <c r="E584" s="9" t="s">
-        <v>1672</v>
+        <v>1630</v>
       </c>
       <c r="F584" s="6"/>
       <c r="G584" s="6"/>
@@ -22016,10 +21926,10 @@
         <v>1</v>
       </c>
       <c r="D585" s="9" t="s">
-        <v>1835</v>
+        <v>1762</v>
       </c>
       <c r="E585" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
@@ -22055,10 +21965,10 @@
         <v>166</v>
       </c>
       <c r="H586" s="5" t="s">
-        <v>1708</v>
+        <v>1640</v>
       </c>
       <c r="I586" s="5" t="s">
-        <v>1824</v>
+        <v>1746</v>
       </c>
       <c r="J586" s="6"/>
       <c r="K586" s="6"/>
@@ -22072,13 +21982,13 @@
         <v>393</v>
       </c>
       <c r="B587" s="17" t="s">
-        <v>1613</v>
+        <v>1852</v>
       </c>
       <c r="C587" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D587" s="5" t="s">
-        <v>1825</v>
+        <v>1747</v>
       </c>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
@@ -22097,7 +22007,7 @@
         <v>389</v>
       </c>
       <c r="B588" s="19" t="s">
-        <v>1884</v>
+        <v>1853</v>
       </c>
       <c r="C588" s="5" t="s">
         <v>16</v>
@@ -22109,7 +22019,7 @@
         <v>80</v>
       </c>
       <c r="F588" s="5" t="s">
-        <v>1759</v>
+        <v>1685</v>
       </c>
       <c r="G588" s="6"/>
       <c r="H588" s="6"/>
@@ -22129,7 +22039,7 @@
         <v>747</v>
       </c>
       <c r="C589" s="5" t="s">
-        <v>1715</v>
+        <v>1647</v>
       </c>
       <c r="D589" s="6"/>
       <c r="E589" s="6"/>
@@ -22178,7 +22088,7 @@
         <v>57</v>
       </c>
       <c r="D591" s="5" t="s">
-        <v>1826</v>
+        <v>1748</v>
       </c>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
@@ -22203,7 +22113,7 @@
         <v>57</v>
       </c>
       <c r="D592" s="8" t="s">
-        <v>1826</v>
+        <v>1748</v>
       </c>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
@@ -22306,7 +22216,7 @@
         <v>730</v>
       </c>
       <c r="C596" s="5" t="s">
-        <v>1673</v>
+        <v>1620</v>
       </c>
       <c r="D596" s="6"/>
       <c r="E596" s="6"/>
@@ -22326,13 +22236,13 @@
         <v>393</v>
       </c>
       <c r="B597" s="19" t="s">
-        <v>1614</v>
+        <v>1854</v>
       </c>
       <c r="C597" s="5" t="s">
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="D597" s="5" t="s">
-        <v>1713</v>
+        <v>1645</v>
       </c>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
@@ -22360,7 +22270,7 @@
         <v>336</v>
       </c>
       <c r="E598" s="9" t="s">
-        <v>1872</v>
+        <v>1835</v>
       </c>
       <c r="F598" s="6"/>
       <c r="G598" s="6"/>
@@ -22387,10 +22297,10 @@
         <v>336</v>
       </c>
       <c r="E599" s="5" t="s">
-        <v>1772</v>
+        <v>1698</v>
       </c>
       <c r="F599" s="9" t="s">
-        <v>1872</v>
+        <v>1835</v>
       </c>
       <c r="G599" s="6"/>
       <c r="H599" s="6"/>
@@ -22416,7 +22326,7 @@
         <v>306</v>
       </c>
       <c r="E600" s="8" t="s">
-        <v>1767</v>
+        <v>1693</v>
       </c>
       <c r="F600" s="6"/>
       <c r="G600" s="6"/>
@@ -22434,7 +22344,7 @@
         <v>389</v>
       </c>
       <c r="B601" s="18" t="s">
-        <v>1625</v>
+        <v>1576</v>
       </c>
       <c r="C601" s="5" t="s">
         <v>16</v>
@@ -22443,16 +22353,16 @@
         <v>49</v>
       </c>
       <c r="E601" s="11" t="s">
-        <v>1639</v>
+        <v>1590</v>
       </c>
       <c r="F601" s="9" t="s">
-        <v>1890</v>
+        <v>1860</v>
       </c>
       <c r="G601" s="5" t="s">
-        <v>1827</v>
+        <v>1749</v>
       </c>
       <c r="H601" s="5" t="s">
-        <v>1828</v>
+        <v>1750</v>
       </c>
       <c r="I601" s="6"/>
       <c r="J601" s="6"/>
@@ -22467,7 +22377,7 @@
         <v>389</v>
       </c>
       <c r="B602" s="16" t="s">
-        <v>1624</v>
+        <v>1575</v>
       </c>
       <c r="C602" s="5" t="s">
         <v>16</v>
@@ -22476,10 +22386,10 @@
         <v>49</v>
       </c>
       <c r="E602" s="5" t="s">
-        <v>1827</v>
+        <v>1749</v>
       </c>
       <c r="F602" s="5" t="s">
-        <v>1828</v>
+        <v>1750</v>
       </c>
       <c r="G602" s="6"/>
       <c r="H602" s="6"/>
@@ -22529,10 +22439,10 @@
         <v>25</v>
       </c>
       <c r="D604" s="9" t="s">
-        <v>1833</v>
+        <v>1759</v>
       </c>
       <c r="E604" s="9" t="s">
-        <v>1690</v>
+        <v>1630</v>
       </c>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -22582,7 +22492,7 @@
         <v>163</v>
       </c>
       <c r="E606" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="F606" s="6"/>
       <c r="G606" s="6"/>
@@ -22621,7 +22531,7 @@
         <v>316</v>
       </c>
       <c r="I607" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="J607" s="6"/>
       <c r="K607" s="6"/>
@@ -22650,7 +22560,7 @@
         <v>314</v>
       </c>
       <c r="G608" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="H608" s="6"/>
       <c r="I608" s="6"/>
@@ -22684,7 +22594,7 @@
         <v>312</v>
       </c>
       <c r="H609" s="8" t="s">
-        <v>1830</v>
+        <v>1753</v>
       </c>
       <c r="I609" s="6"/>
       <c r="J609" s="6"/>
@@ -22708,7 +22618,7 @@
         <v>205</v>
       </c>
       <c r="E610" s="5" t="s">
-        <v>1829</v>
+        <v>1751</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
@@ -22729,13 +22639,13 @@
         <v>670</v>
       </c>
       <c r="C611" s="9" t="s">
-        <v>1576</v>
+        <v>59</v>
       </c>
       <c r="D611" s="5" t="s">
         <v>205</v>
       </c>
       <c r="E611" s="5" t="s">
-        <v>1829</v>
+        <v>1751</v>
       </c>
       <c r="F611" s="6"/>
       <c r="G611" s="6"/>
@@ -22747,22 +22657,6 @@
       <c r="M611" s="6"/>
       <c r="N611" s="6"/>
       <c r="O611" s="22"/>
-    </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A612" s="14"/>
-      <c r="B612" s="22"/>
-      <c r="C612" s="22"/>
-      <c r="D612" s="22"/>
-      <c r="E612" s="22"/>
-      <c r="F612" s="22"/>
-      <c r="G612" s="22"/>
-      <c r="H612" s="22"/>
-      <c r="I612" s="22"/>
-      <c r="J612" s="22"/>
-      <c r="K612" s="22"/>
-      <c r="L612" s="22"/>
-      <c r="M612" s="22"/>
-      <c r="N612" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22785,8 +22679,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2149"/>
   <sheetViews>
-    <sheetView topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="E790" sqref="E790"/>
+    <sheetView topLeftCell="A1144" workbookViewId="0">
+      <selection activeCell="E1158" sqref="E1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24130,7 +24024,7 @@
         <v>1431</v>
       </c>
       <c r="B56" t="s">
-        <v>1891</v>
+        <v>1861</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
@@ -24155,7 +24049,7 @@
         <v>1431</v>
       </c>
       <c r="B57" t="s">
-        <v>1893</v>
+        <v>1863</v>
       </c>
       <c r="C57" s="4">
         <v>4</v>
@@ -39644,7 +39538,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A699" s="12" t="s">
-        <v>1654</v>
+        <v>1605</v>
       </c>
       <c r="C699" s="4">
         <v>0</v>
@@ -39666,7 +39560,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A700" s="12" t="s">
-        <v>1654</v>
+        <v>1605</v>
       </c>
       <c r="B700" s="12" t="s">
         <v>59</v>
@@ -39691,10 +39585,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A701" s="12" t="s">
-        <v>1654</v>
+        <v>1605</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>1633</v>
+        <v>1584</v>
       </c>
       <c r="C701" s="4">
         <v>2</v>
@@ -39716,10 +39610,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A702" s="12" t="s">
-        <v>1654</v>
+        <v>1605</v>
       </c>
       <c r="B702" s="12" t="s">
-        <v>1634</v>
+        <v>1585</v>
       </c>
       <c r="C702" s="4">
         <v>3</v>
@@ -48198,7 +48092,7 @@
         <v>984</v>
       </c>
       <c r="B1054" t="s">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="C1054" s="4">
         <v>1</v>
@@ -50571,7 +50465,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1153" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="C1153" s="4">
         <v>0</v>
@@ -50593,10 +50487,10 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1154" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="B1154" s="12" t="s">
-        <v>1641</v>
+        <v>1592</v>
       </c>
       <c r="C1154" s="4">
         <v>1</v>
@@ -50605,7 +50499,7 @@
         <v>0</v>
       </c>
       <c r="E1154" s="12" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="F1154" s="3" t="str">
         <f>IF(C1154,"&lt;td&gt;","&lt;tr&gt;&lt;td&gt;")</f>
@@ -50613,15 +50507,15 @@
       </c>
       <c r="G1154" s="3" t="str">
         <f t="shared" ref="G1154:G1217" si="18">IF(E1154="v",,IF(COUNTIF(E1154,"v*"),"&lt;u&gt;",)&amp;IF(COUNTIF(E1154,"*a*"),"&lt;b&gt;",)&amp;IF(COUNTIF(E1154,"*r"),"&lt;i&gt;",))&amp;IF(C1154,IF(C1154,IF(D1154,IF(D1153,"["&amp;B1154&amp;"]",B1154),B1154),""),UPPER(A1154))</f>
-        <v>&lt;i&gt;name1</v>
+        <v>&lt;u&gt;&lt;b&gt;&lt;i&gt;name1</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1155" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="B1155" s="12" t="s">
-        <v>1642</v>
+        <v>1593</v>
       </c>
       <c r="C1155" s="4">
         <v>2</v>
@@ -50643,10 +50537,10 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1156" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="B1156" s="12" t="s">
-        <v>1643</v>
+        <v>1594</v>
       </c>
       <c r="C1156" s="4">
         <v>3</v>
@@ -50655,7 +50549,7 @@
         <v>1</v>
       </c>
       <c r="E1156" s="12" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="F1156" s="3" t="str">
         <f>IF(C1156,"&lt;td&gt;","&lt;tr&gt;&lt;td&gt;")</f>
@@ -50663,15 +50557,15 @@
       </c>
       <c r="G1156" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;i&gt;calculation_or_name2</v>
+        <v>&lt;u&gt;&lt;b&gt;&lt;i&gt;calculation_or_name2</v>
       </c>
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1157" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="B1157" s="12" t="s">
-        <v>1644</v>
+        <v>1595</v>
       </c>
       <c r="C1157" s="4">
         <v>4</v>
@@ -50693,10 +50587,10 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1158" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="B1158" s="12" t="s">
-        <v>1645</v>
+        <v>1596</v>
       </c>
       <c r="C1158" s="4">
         <v>5</v>
@@ -50705,7 +50599,7 @@
         <v>1</v>
       </c>
       <c r="E1158" s="12" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="F1158" s="3" t="str">
         <f>IF(C1158,"&lt;td&gt;","&lt;tr&gt;&lt;td&gt;")</f>
@@ -50713,15 +50607,15 @@
       </c>
       <c r="G1158" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;i&gt;[calculation_or_name3]</v>
+        <v>&lt;u&gt;&lt;b&gt;&lt;i&gt;[calculation_or_name3]</v>
       </c>
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1159" s="12" t="s">
-        <v>1660</v>
+        <v>1611</v>
       </c>
       <c r="B1159" s="12" t="s">
-        <v>1646</v>
+        <v>1597</v>
       </c>
       <c r="C1159" s="4">
         <v>6</v>
@@ -60938,7 +60832,7 @@
     </row>
     <row r="1581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1581" s="12" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
       <c r="C1581" s="4">
         <v>0</v>
@@ -60960,7 +60854,7 @@
     </row>
     <row r="1582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1582" s="12" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
       <c r="B1582" s="12" t="s">
         <v>60</v>
@@ -60985,10 +60879,10 @@
     </row>
     <row r="1583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1583" s="12" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
       <c r="B1583" s="12" t="s">
-        <v>1627</v>
+        <v>1578</v>
       </c>
       <c r="C1583" s="4">
         <v>2</v>
@@ -61010,10 +60904,10 @@
     </row>
     <row r="1584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1584" s="12" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
       <c r="B1584" s="12" t="s">
-        <v>1628</v>
+        <v>1579</v>
       </c>
       <c r="C1584" s="4">
         <v>3</v>
@@ -61035,10 +60929,10 @@
     </row>
     <row r="1585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1585" s="12" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
       <c r="B1585" s="12" t="s">
-        <v>1629</v>
+        <v>1580</v>
       </c>
       <c r="C1585" s="4">
         <v>4</v>
@@ -61060,10 +60954,10 @@
     </row>
     <row r="1586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1586" s="12" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
       <c r="B1586" s="12" t="s">
-        <v>1630</v>
+        <v>1581</v>
       </c>
       <c r="C1586" s="4">
         <v>5</v>
@@ -64684,7 +64578,7 @@
     </row>
     <row r="1736" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1736" s="12" t="s">
-        <v>1655</v>
+        <v>1606</v>
       </c>
       <c r="C1736" s="4">
         <v>0</v>
@@ -64706,7 +64600,7 @@
     </row>
     <row r="1737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1737" s="12" t="s">
-        <v>1655</v>
+        <v>1606</v>
       </c>
       <c r="B1737" s="12" t="s">
         <v>60</v>
@@ -64731,10 +64625,10 @@
     </row>
     <row r="1738" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1738" s="12" t="s">
-        <v>1655</v>
+        <v>1606</v>
       </c>
       <c r="B1738" s="12" t="s">
-        <v>1627</v>
+        <v>1578</v>
       </c>
       <c r="C1738" s="4">
         <v>2</v>
@@ -64756,10 +64650,10 @@
     </row>
     <row r="1739" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1739" s="12" t="s">
-        <v>1655</v>
+        <v>1606</v>
       </c>
       <c r="B1739" s="12" t="s">
-        <v>1635</v>
+        <v>1586</v>
       </c>
       <c r="C1739" s="4">
         <v>3</v>
@@ -64781,7 +64675,7 @@
     </row>
     <row r="1740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1740" s="12" t="s">
-        <v>1655</v>
+        <v>1606</v>
       </c>
       <c r="B1740" s="12" t="s">
         <v>304</v>
@@ -65329,7 +65223,7 @@
     </row>
     <row r="1763" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1763" t="s">
-        <v>1651</v>
+        <v>1602</v>
       </c>
       <c r="C1763" s="4">
         <v>0</v>
@@ -65351,7 +65245,7 @@
     </row>
     <row r="1764" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1764" t="s">
-        <v>1651</v>
+        <v>1602</v>
       </c>
       <c r="B1764" t="s">
         <v>7</v>
@@ -65363,7 +65257,7 @@
         <v>0</v>
       </c>
       <c r="E1764" s="12" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="F1764" s="3" t="str">
         <f>IF(C1764,"&lt;td&gt;","&lt;tr&gt;&lt;td&gt;")</f>
@@ -65371,7 +65265,7 @@
       </c>
       <c r="G1764" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>&lt;u&gt;&lt;i&gt;value</v>
+        <v>&lt;u&gt;&lt;b&gt;&lt;i&gt;value</v>
       </c>
     </row>
     <row r="1765" spans="1:7" x14ac:dyDescent="0.35">
@@ -65858,7 +65752,7 @@
     </row>
     <row r="1785" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1785" s="12" t="s">
-        <v>1656</v>
+        <v>1607</v>
       </c>
       <c r="C1785" s="4">
         <v>0</v>
@@ -65880,7 +65774,7 @@
     </row>
     <row r="1786" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1786" s="12" t="s">
-        <v>1656</v>
+        <v>1607</v>
       </c>
       <c r="B1786" s="12" t="s">
         <v>59</v>
@@ -65905,10 +65799,10 @@
     </row>
     <row r="1787" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1787" s="12" t="s">
-        <v>1656</v>
+        <v>1607</v>
       </c>
       <c r="B1787" s="12" t="s">
-        <v>1636</v>
+        <v>1587</v>
       </c>
       <c r="C1787" s="4">
         <v>2</v>
@@ -65930,7 +65824,7 @@
     </row>
     <row r="1788" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1788" s="12" t="s">
-        <v>1656</v>
+        <v>1607</v>
       </c>
       <c r="B1788" s="12" t="s">
         <v>342</v>
@@ -65955,10 +65849,10 @@
     </row>
     <row r="1789" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1789" s="12" t="s">
-        <v>1656</v>
+        <v>1607</v>
       </c>
       <c r="B1789" s="12" t="s">
-        <v>1631</v>
+        <v>1582</v>
       </c>
       <c r="C1789" s="4">
         <v>4</v>
@@ -65980,7 +65874,7 @@
     </row>
     <row r="1790" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1790" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="C1790" s="4">
         <v>0</v>
@@ -66002,7 +65896,7 @@
     </row>
     <row r="1791" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1791" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="B1791" s="12" t="s">
         <v>59</v>
@@ -66027,10 +65921,10 @@
     </row>
     <row r="1792" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1792" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="B1792" s="12" t="s">
-        <v>1647</v>
+        <v>1598</v>
       </c>
       <c r="C1792" s="4">
         <v>2</v>
@@ -66052,10 +65946,10 @@
     </row>
     <row r="1793" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1793" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="B1793" s="12" t="s">
-        <v>1648</v>
+        <v>1599</v>
       </c>
       <c r="C1793" s="4">
         <v>3</v>
@@ -66077,10 +65971,10 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1794" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="B1794" s="12" t="s">
-        <v>1649</v>
+        <v>1600</v>
       </c>
       <c r="C1794" s="4">
         <v>4</v>
@@ -66102,10 +65996,10 @@
     </row>
     <row r="1795" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1795" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="B1795" s="12" t="s">
-        <v>1650</v>
+        <v>1601</v>
       </c>
       <c r="C1795" s="4">
         <v>5</v>
@@ -66127,7 +66021,7 @@
     </row>
     <row r="1796" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1796" s="12" t="s">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="B1796" s="12" t="s">
         <v>3</v>
@@ -71085,7 +70979,7 @@
     </row>
     <row r="2002" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2002" s="12" t="s">
-        <v>1653</v>
+        <v>1604</v>
       </c>
       <c r="C2002" s="4">
         <v>0</v>
@@ -71107,7 +71001,7 @@
     </row>
     <row r="2003" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2003" s="12" t="s">
-        <v>1653</v>
+        <v>1604</v>
       </c>
       <c r="B2003" s="12" t="s">
         <v>59</v>
@@ -71132,10 +71026,10 @@
     </row>
     <row r="2004" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2004" s="12" t="s">
-        <v>1653</v>
+        <v>1604</v>
       </c>
       <c r="B2004" s="12" t="s">
-        <v>1631</v>
+        <v>1582</v>
       </c>
       <c r="C2004" s="4">
         <v>2</v>
@@ -71157,10 +71051,10 @@
     </row>
     <row r="2005" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2005" s="12" t="s">
-        <v>1653</v>
+        <v>1604</v>
       </c>
       <c r="B2005" s="12" t="s">
-        <v>1632</v>
+        <v>1583</v>
       </c>
       <c r="C2005" s="4">
         <v>3</v>
@@ -73332,7 +73226,7 @@
     </row>
     <row r="2095" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2095" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="C2095" s="4">
         <v>0</v>
@@ -73354,7 +73248,7 @@
     </row>
     <row r="2096" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2096" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="B2096" s="12" t="s">
         <v>16</v>
@@ -73379,7 +73273,7 @@
     </row>
     <row r="2097" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2097" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="B2097" s="12" t="s">
         <v>49</v>
@@ -73404,10 +73298,10 @@
     </row>
     <row r="2098" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2098" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="B2098" s="12" t="s">
-        <v>1639</v>
+        <v>1590</v>
       </c>
       <c r="C2098" s="4">
         <v>3</v>
@@ -73429,10 +73323,10 @@
     </row>
     <row r="2099" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2099" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="B2099" s="12" t="s">
-        <v>1640</v>
+        <v>1591</v>
       </c>
       <c r="C2099" s="4">
         <v>4</v>
@@ -73454,10 +73348,10 @@
     </row>
     <row r="2100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2100" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="B2100" s="12" t="s">
-        <v>1637</v>
+        <v>1588</v>
       </c>
       <c r="C2100" s="4">
         <v>5</v>
@@ -73479,10 +73373,10 @@
     </row>
     <row r="2101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2101" s="12" t="s">
-        <v>1659</v>
+        <v>1610</v>
       </c>
       <c r="B2101" s="12" t="s">
-        <v>1638</v>
+        <v>1589</v>
       </c>
       <c r="C2101" s="4">
         <v>6</v>
@@ -73504,7 +73398,7 @@
     </row>
     <row r="2102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2102" s="12" t="s">
-        <v>1658</v>
+        <v>1609</v>
       </c>
       <c r="C2102" s="4">
         <v>0</v>
@@ -73526,7 +73420,7 @@
     </row>
     <row r="2103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2103" s="12" t="s">
-        <v>1658</v>
+        <v>1609</v>
       </c>
       <c r="B2103" s="12" t="s">
         <v>16</v>
@@ -73551,7 +73445,7 @@
     </row>
     <row r="2104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2104" s="12" t="s">
-        <v>1658</v>
+        <v>1609</v>
       </c>
       <c r="B2104" s="12" t="s">
         <v>49</v>
@@ -73576,10 +73470,10 @@
     </row>
     <row r="2105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2105" s="12" t="s">
-        <v>1658</v>
+        <v>1609</v>
       </c>
       <c r="B2105" s="12" t="s">
-        <v>1637</v>
+        <v>1588</v>
       </c>
       <c r="C2105" s="4">
         <v>3</v>
@@ -73601,10 +73495,10 @@
     </row>
     <row r="2106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2106" s="12" t="s">
-        <v>1658</v>
+        <v>1609</v>
       </c>
       <c r="B2106" s="12" t="s">
-        <v>1638</v>
+        <v>1589</v>
       </c>
       <c r="C2106" s="4">
         <v>4</v>
